--- a/fsdata/골드앤에스.xlsx
+++ b/fsdata/골드앤에스.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bitcamp\Desktop\새 폴더\Bit_Project1\fsdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBDE893-E989-4E32-8299-BD848BB1CF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="12525" yWindow="1410" windowWidth="15750" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_bs" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
     <sheet name="Data_cf" sheetId="5" r:id="rId5"/>
     <sheet name="Labels_cf" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="573">
   <si>
     <t>[D210000] Statement of financial position, current/non-current - Consolidated financial statements (Unit: KRW)</t>
   </si>
@@ -1033,9 +1039,6 @@
   </si>
   <si>
     <t>ifrs_CashFlowsFromUsedInOperatingActivities</t>
-  </si>
-  <si>
-    <t>entity00249502_udf_CF_20188618324179_CashFlowsFromUsedInOperatingActivities</t>
   </si>
   <si>
     <t>ifrs_InterestReceivedClassifiedAsOperatingActivities</t>
@@ -1746,12 +1749,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1759,8 +1762,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1799,22 +1809,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1856,7 +1877,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1888,9 +1909,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1922,6 +1961,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2097,24 +2154,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2152,7 +2209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -2212,7 +2269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -2271,7 +2328,7 @@
         <v>20873070335</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2333,7 +2390,7 @@
         <v>4191162842</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2395,7 +2452,7 @@
         <v>9921806091</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -2457,7 +2514,7 @@
         <v>2738438184</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2510,7 +2567,7 @@
         <v>770000000</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2572,7 +2629,7 @@
         <v>21500724</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -2634,7 +2691,7 @@
         <v>3230162494</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2693,7 +2750,7 @@
         <v>33758236060</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2746,7 +2803,7 @@
         <v>3723193378</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2808,7 +2865,7 @@
         <v>3716632090</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2870,7 +2927,7 @@
         <v>1204435264</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2932,7 +2989,7 @@
         <v>19947467794</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2967,7 +3024,7 @@
         <v>8812774619</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -3020,7 +3077,7 @@
         <v>902000000</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -3052,7 +3109,7 @@
         <v>52176527</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -3111,7 +3168,7 @@
         <v>54631306395</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -3170,7 +3227,7 @@
         <v>19130955055</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -3232,7 +3289,7 @@
         <v>6592983453</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -3291,7 +3348,7 @@
         <v>7005495205</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -3320,7 +3377,7 @@
         <v>3924325000</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -3376,7 +3433,7 @@
         <v>3184339022</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -3435,7 +3492,7 @@
         <v>35284912</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -3497,7 +3554,7 @@
         <v>762196720</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -3556,7 +3613,7 @@
         <v>4678923663</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -3618,7 +3675,7 @@
         <v>132719200</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -3671,7 +3728,7 @@
         <v>600254512</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -3727,7 +3784,7 @@
         <v>1430643533</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -3789,7 +3846,7 @@
         <v>121544670</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -3848,7 +3905,7 @@
         <v>23809878718</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -3907,7 +3964,7 @@
         <v>30813160160</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -3969,7 +4026,7 @@
         <v>25829039500</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -4031,7 +4088,7 @@
         <v>3555257423</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -4090,7 +4147,7 @@
         <v>8168652</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -4152,7 +4209,7 @@
         <v>3285882704</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -4211,7 +4268,7 @@
         <v>8267517</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -4270,7 +4327,7 @@
         <v>30821427677</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -4330,19 +4387,21 @@
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>133</v>
@@ -4384,7 +4443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -4426,7 +4485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -4470,7 +4529,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -4514,7 +4573,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -4558,7 +4617,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -4602,7 +4661,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -4646,7 +4705,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -4690,7 +4749,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -4734,7 +4793,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -4778,7 +4837,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -4822,7 +4881,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -4866,7 +4925,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -4910,7 +4969,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -4954,7 +5013,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -4977,7 +5036,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -5021,7 +5080,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5041,7 +5100,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -5085,7 +5144,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -5129,7 +5188,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -5173,7 +5232,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -5217,7 +5276,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -5240,7 +5299,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -5284,7 +5343,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -5328,7 +5387,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -5372,7 +5431,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -5416,7 +5475,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -5460,7 +5519,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -5501,7 +5560,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -5545,7 +5604,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -5589,7 +5648,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -5633,7 +5692,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -5677,7 +5736,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -5721,7 +5780,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -5765,7 +5824,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -5809,7 +5868,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -5853,7 +5912,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -5897,7 +5956,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -5941,7 +6000,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -5986,29 +6045,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
         <v>199</v>
       </c>
@@ -6043,7 +6103,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -6100,7 +6160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -6153,7 +6213,7 @@
         <v>50487260889</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -6206,7 +6266,7 @@
         <v>35851526207</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -6259,7 +6319,7 @@
         <v>14635734682</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -6312,7 +6372,7 @@
         <v>15004917109</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -6365,7 +6425,7 @@
         <v>-369182427</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -6418,7 +6478,7 @@
         <v>196101993</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -6471,7 +6531,7 @@
         <v>8033167535</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -6524,7 +6584,7 @@
         <v>546068972</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -6577,7 +6637,7 @@
         <v>1327736285</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -6630,7 +6690,7 @@
         <v>-9066904635</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -6683,7 +6743,7 @@
         <v>-106227089</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -6727,7 +6787,7 @@
         <v>-15047226219</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -6783,7 +6843,7 @@
         <v>-9127774609</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -6833,7 +6893,7 @@
         <v>-486276</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -6868,7 +6928,7 @@
         <v>-1790246878</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -6918,7 +6978,7 @@
         <v>-8960191270</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -6953,7 +7013,7 @@
         <v>-971490709</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -7009,7 +7069,7 @@
         <v>-8960191270</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -7059,7 +7119,7 @@
         <v>-486276</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -7115,7 +7175,7 @@
         <v>-9127774609</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -7165,7 +7225,7 @@
         <v>-204015</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -7218,7 +7278,7 @@
         <v>-167301078</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -7241,7 +7301,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -7297,7 +7357,7 @@
         <v>8450913</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -7347,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -7403,7 +7463,7 @@
         <v>-183</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -7436,19 +7496,20 @@
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>133</v>
@@ -7487,7 +7548,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -7526,7 +7587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -7567,7 +7628,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -7608,7 +7669,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -7649,7 +7710,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -7690,7 +7751,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -7731,7 +7792,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -7772,7 +7833,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -7813,7 +7874,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -7854,7 +7915,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -7895,7 +7956,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -7936,7 +7997,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -7977,7 +8038,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -8009,7 +8070,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -8050,7 +8111,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -8091,7 +8152,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -8123,7 +8184,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -8164,7 +8225,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -8187,7 +8248,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -8228,7 +8289,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -8269,7 +8330,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -8310,7 +8371,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -8351,7 +8412,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -8392,7 +8453,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -8415,7 +8476,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -8456,7 +8517,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -8497,7 +8558,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -8538,7 +8599,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -8562,28 +8623,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="1" t="s">
         <v>199</v>
       </c>
@@ -8618,7 +8682,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -8672,7 +8736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -8680,16 +8744,16 @@
         <v>337</v>
       </c>
       <c r="C4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H4">
         <v>-498312570</v>
@@ -8725,83 +8789,30 @@
         <v>8981018725</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>338</v>
-      </c>
-      <c r="C5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D5" t="s">
-        <v>423</v>
-      </c>
-      <c r="E5" t="s">
-        <v>465</v>
-      </c>
-      <c r="F5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G5" t="s">
-        <v>381</v>
-      </c>
-      <c r="H5">
-        <v>-408068656</v>
-      </c>
-      <c r="I5">
-        <v>-4771325060</v>
-      </c>
-      <c r="J5">
-        <v>-2691529938</v>
-      </c>
-      <c r="K5">
-        <v>414013344</v>
-      </c>
-      <c r="L5">
-        <v>1785351017</v>
-      </c>
-      <c r="M5">
-        <v>1708283973</v>
-      </c>
-      <c r="N5">
-        <v>-991208123</v>
-      </c>
-      <c r="O5">
-        <v>-204051547</v>
-      </c>
-      <c r="P5">
-        <v>2478989989</v>
-      </c>
-      <c r="Q5">
-        <v>8628849559</v>
-      </c>
-      <c r="R5">
-        <v>8981018725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H6">
         <v>19993716</v>
@@ -8837,27 +8848,27 @@
         <v>180638675</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H7">
         <v>141186890</v>
@@ -8893,27 +8904,27 @@
         <v>947421472</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H8">
         <v>-30949260</v>
@@ -8949,24 +8960,24 @@
         <v>13595512</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H9">
         <v>913872561</v>
@@ -9002,27 +9013,27 @@
         <v>-13102833149</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G10" t="s">
         <v>385</v>
-      </c>
-      <c r="G10" t="s">
-        <v>386</v>
       </c>
       <c r="H10">
         <v>454000000</v>
@@ -9058,27 +9069,27 @@
         <v>1770425000</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H11">
         <v>377682098</v>
@@ -9087,27 +9098,27 @@
         <v>1765990260</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H12">
         <v>181057572</v>
@@ -9140,27 +9151,27 @@
         <v>-1661898852</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I13">
         <v>240000000</v>
@@ -9190,27 +9201,27 @@
         <v>770000000</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H14">
         <v>248518181</v>
@@ -9222,27 +9233,27 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H15">
         <v>45454545</v>
@@ -9272,53 +9283,53 @@
         <v>11244413</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J16">
         <v>943126938</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J17">
         <v>849079140</v>
@@ -9348,27 +9359,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H18">
         <v>323373171</v>
@@ -9404,53 +9415,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J19">
         <v>9022284130</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I20">
         <v>40000000</v>
@@ -9480,27 +9491,27 @@
         <v>180000000</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I21">
         <v>1960000000</v>
@@ -9530,27 +9541,27 @@
         <v>3820164435</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H22">
         <v>-15633950</v>
@@ -9562,27 +9573,27 @@
         <v>-1529712728</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I23">
         <v>350000000</v>
@@ -9612,53 +9623,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D24" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J24">
         <v>1000000000</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H25">
         <v>130450000</v>
@@ -9694,27 +9705,27 @@
         <v>796160000</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H26">
         <v>553629056</v>
@@ -9732,27 +9743,27 @@
         <v>67924160</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H27">
         <v>16500000</v>
@@ -9770,53 +9781,53 @@
         <v>1156955396</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J28">
         <v>8822357056</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D29" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K29">
         <v>1299997920</v>
@@ -9828,10 +9839,10 @@
         <v>2523402500</v>
       </c>
       <c r="N29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>10454546</v>
@@ -9843,27 +9854,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K30">
         <v>950000000</v>
@@ -9872,7 +9883,7 @@
         <v>6079997500</v>
       </c>
       <c r="M30">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>4525833</v>
@@ -9890,27 +9901,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E31" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K31">
         <v>-7724828519</v>
@@ -9934,27 +9945,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K32">
         <v>2500000000</v>
@@ -9978,24 +9989,24 @@
         <v>307694081</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H33">
         <v>6671045209</v>
@@ -10031,27 +10042,27 @@
         <v>393263500</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F34" t="s">
+        <v>408</v>
+      </c>
+      <c r="G34" t="s">
         <v>409</v>
-      </c>
-      <c r="G34" t="s">
-        <v>410</v>
       </c>
       <c r="J34">
         <v>2000000000</v>
@@ -10081,27 +10092,27 @@
         <v>21501457998</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H35">
         <v>17000000000</v>
@@ -10137,27 +10148,27 @@
         <v>28249000</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H36">
         <v>5000000000</v>
@@ -10166,53 +10177,53 @@
         <v>26532751780</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E37" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J37">
         <v>240000000</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H38">
         <v>1900000000</v>
@@ -10248,27 +10259,27 @@
         <v>16994769498</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C39" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D39" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G39" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H39">
         <v>13226527705</v>
@@ -10292,27 +10303,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H40">
         <v>202427086</v>
@@ -10324,7 +10335,7 @@
         <v>2217238355</v>
       </c>
       <c r="M40">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -10342,27 +10353,27 @@
         <v>204340000</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D41" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E41" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I41">
         <v>15053760</v>
@@ -10389,27 +10400,27 @@
         <v>-750000000</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I42">
         <v>5000000</v>
@@ -10436,24 +10447,24 @@
         <v>-9000000</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H43">
         <v>7086605200</v>
@@ -10489,24 +10500,24 @@
         <v>-3728550924</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H44">
         <v>758085242</v>
@@ -10542,24 +10553,24 @@
         <v>4191162842</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D45" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E45" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H45">
         <v>-3581877</v>
@@ -10592,24 +10603,24 @@
         <v>-831929</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C46" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D46" t="s">
+        <v>463</v>
+      </c>
+      <c r="E46" t="s">
         <v>464</v>
       </c>
-      <c r="E46" t="s">
-        <v>465</v>
-      </c>
       <c r="F46" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H46">
         <v>7841108565</v>
@@ -10649,19 +10660,20 @@
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>133</v>
@@ -10700,7 +10712,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -10739,1557 +10751,1558 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M5" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M6" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M7" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M8" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M10" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M12" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M13" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G14" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M15" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G16" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M17" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L18" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M18" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F19" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G19" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M20" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M21" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F22" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F23" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G23" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H23" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K23" t="s">
+        <v>565</v>
+      </c>
+      <c r="L23" t="s">
         <v>566</v>
       </c>
-      <c r="L23" t="s">
-        <v>567</v>
-      </c>
       <c r="M23" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G24" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M25" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G26" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G27" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G28" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H29" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I29" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J29" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K29" t="s">
+        <v>566</v>
+      </c>
+      <c r="L29" t="s">
         <v>567</v>
       </c>
-      <c r="L29" t="s">
-        <v>568</v>
-      </c>
       <c r="M29" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F30" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G30" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K30" t="s">
+        <v>567</v>
+      </c>
+      <c r="L30" t="s">
         <v>568</v>
       </c>
-      <c r="L30" t="s">
-        <v>569</v>
-      </c>
       <c r="M30" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H31" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I31" t="s">
+        <v>559</v>
+      </c>
+      <c r="J31" t="s">
+        <v>559</v>
+      </c>
+      <c r="K31" t="s">
+        <v>568</v>
+      </c>
+      <c r="L31" t="s">
         <v>560</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="s">
         <v>560</v>
       </c>
-      <c r="K31" t="s">
-        <v>569</v>
-      </c>
-      <c r="L31" t="s">
-        <v>561</v>
-      </c>
-      <c r="M31" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L32" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M32" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L33" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M33" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F34" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G34" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M34" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K35" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L35" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M35" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G36" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F37" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M38" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C39" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D39" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E39" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F39" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I39" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J39" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K39" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L39" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M39" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I40" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J40" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K40" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L40" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M40" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H41" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I41" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J41" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K41" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L41" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M41" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F42" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M42" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I43" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J43" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K43" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L43" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M43" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M44" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F45" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G45" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H45" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I45" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J45" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K45" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L45" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M45" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C46" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D46" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E46" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F46" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G46" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H46" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I46" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J46" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K46" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L46" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M46" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>